--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3107077.55463639</v>
+        <v>-3107891.001848279</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954295</v>
+        <v>2927877.345954297</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>289.117288741969</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.098592786497</v>
+        <v>280.0985927864968</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577619</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241315</v>
+        <v>61.32070768241302</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545173</v>
+        <v>84.08218037545159</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842796</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U11" t="n">
-        <v>160.498791685338</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>61.61405761030607</v>
       </c>
     </row>
     <row r="12">
@@ -1500,7 +1500,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T12" t="n">
-        <v>185.6363186866071</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U12" t="n">
         <v>216.2908792854683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.7226826589843</v>
+        <v>92.72268265898417</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438478</v>
+        <v>78.92267750438465</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196304</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774262</v>
+        <v>61.49179175774249</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592893</v>
+        <v>61.9587160859288</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033082</v>
+        <v>77.99174215033069</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366595</v>
+        <v>66.63306124366582</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227662</v>
+        <v>46.49600542227649</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271702</v>
+        <v>48.16276991271688</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>50.59334122512562</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141333</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.9923684586742</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250263</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.817674881094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>167.4264021707113</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>19.44703950962034</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
         <v>163.2962484526289</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -1737,7 +1737,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T15" t="n">
-        <v>185.6363186866071</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U15" t="n">
         <v>216.2908792854683</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898417</v>
+        <v>92.7226826589842</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438465</v>
+        <v>78.92267750438468</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196304</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.9587160859288</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033069</v>
+        <v>77.99174215033072</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366582</v>
+        <v>25.38745371823717</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227649</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.1627699127169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>118.3637676193849</v>
@@ -1819,19 +1819,19 @@
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>104.0317006244294</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
         <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010959</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283881</v>
+        <v>53.82993817283826</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118826</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H18" t="n">
-        <v>96.15438866313546</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
         <v>57.7733452031032</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754354</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C19" t="n">
-        <v>157.9548387396026</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890062</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.4339761079443</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917097</v>
+        <v>201.9347306014272</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716913</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358551</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.8878833696532</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
         <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
         <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011025</v>
+        <v>7.152388864011078</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283921</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118832</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
         <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.7928911475436</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944082</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>157.0239033855483</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794435</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917103</v>
+        <v>201.9347306014272</v>
       </c>
       <c r="U22" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716919</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358557</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965325</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C23" t="n">
         <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
         <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807972</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011025</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283886</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118832</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
         <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1529440554391</v>
+        <v>127.1529440554385</v>
       </c>
       <c r="H24" t="n">
         <v>96.15438866313485</v>
@@ -2448,7 +2448,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T24" t="n">
-        <v>185.6363186866066</v>
+        <v>185.6363186866071</v>
       </c>
       <c r="U24" t="n">
         <v>216.2908792854683</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.7928911475436</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944082</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D25" t="n">
-        <v>5.473028650363791</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890119</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794435</v>
+        <v>179.4810853502007</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917103</v>
+        <v>63.88762135917109</v>
       </c>
       <c r="U25" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716919</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358557</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965325</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668825</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389978</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F26" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748332</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500846</v>
+        <v>47.8186887650086</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804704</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352243</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.1072856139639</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157961</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C28" t="n">
-        <v>65.4206585869801</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455849</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033793</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852424</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292614</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626127</v>
+        <v>53.13104232626142</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487193</v>
+        <v>32.99398650487208</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531234</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.315393953207</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6288001412052</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D31" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531244</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668825</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748332</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500847</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804704</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668749</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.1072856139639</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157963</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698011</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.0420229845585</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033795</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852426</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292615</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626128</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487195</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531236</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.315393953207</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412052</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076216</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C35" t="n">
         <v>225.527665107647</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V35" t="n">
         <v>181.0227253901444</v>
@@ -3332,7 +3332,7 @@
         <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600884</v>
+        <v>33.91895488213576</v>
       </c>
       <c r="H37" t="n">
-        <v>22.56027397547107</v>
+        <v>3.043437609343996</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506307</v>
+        <v>54.77414398506309</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U37" t="n">
         <v>131.7183987798113</v>
@@ -3487,10 +3487,10 @@
         <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677197</v>
+        <v>67.228051246772</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C38" t="n">
         <v>225.527665107647</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3569,7 +3569,7 @@
         <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>19.5168363661271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.5168363661269</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343969</v>
+        <v>3.043437609343996</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506307</v>
+        <v>54.77414398506309</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798113</v>
@@ -3724,10 +3724,10 @@
         <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070428</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677197</v>
+        <v>67.228051246772</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521748</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112957</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995741</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466215</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343799</v>
+        <v>3.043437609343882</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.5168363661289</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.7741439850629</v>
+        <v>74.29098035119115</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628957</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798111</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070411</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521748</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995741</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945683</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466215</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343799</v>
+        <v>3.043437609343882</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.51683636612891</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.7741439850629</v>
+        <v>74.29098035119115</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628957</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798111</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W46" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070411</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1879.695062530005</v>
+        <v>1263.402299715511</v>
       </c>
       <c r="C11" t="n">
-        <v>1587.657397134077</v>
+        <v>1263.402299715511</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.729525632565</v>
+        <v>980.4744282139987</v>
       </c>
       <c r="E11" t="n">
-        <v>999.8398990099358</v>
+        <v>675.5848015913701</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913705</v>
+        <v>675.5848015913701</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547666</v>
+        <v>349.9211271547663</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974314</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710447</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355413</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P11" t="n">
         <v>2379.433668932841</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002491</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2152.33389940114</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>2152.33389940114</v>
+        <v>1902.425004661992</v>
       </c>
       <c r="W11" t="n">
-        <v>1879.695062530005</v>
+        <v>1629.786167790857</v>
       </c>
       <c r="X11" t="n">
-        <v>1879.695062530005</v>
+        <v>1629.786167790857</v>
       </c>
       <c r="Y11" t="n">
-        <v>1879.695062530005</v>
+        <v>1567.549745962265</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779676</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189225</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091347</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660058</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158802</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H12" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K12" t="n">
-        <v>413.4208828411996</v>
+        <v>144.1503362656406</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2082694571443</v>
+        <v>571.9377228815854</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1129.281940533324</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.0979994013875</v>
+        <v>511.2737993023596</v>
       </c>
       <c r="C13" t="n">
-        <v>368.3781231343322</v>
+        <v>431.5539230353044</v>
       </c>
       <c r="D13" t="n">
-        <v>368.3781231343322</v>
+        <v>368.3781231343316</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2652021669154</v>
+        <v>306.265202166915</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639569</v>
+        <v>243.6806404639566</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383702</v>
+        <v>164.90110293837</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700208</v>
+        <v>97.59498047002066</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413164</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447745</v>
+        <v>714.1904553447748</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068811</v>
+        <v>957.3332466068815</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1259.898235192891</v>
       </c>
       <c r="T13" t="n">
-        <v>1208.793850117005</v>
+        <v>1117.658424212475</v>
       </c>
       <c r="U13" t="n">
-        <v>1011.513019395658</v>
+        <v>920.3775934911287</v>
       </c>
       <c r="V13" t="n">
-        <v>1011.513019395658</v>
+        <v>801.1933829268113</v>
       </c>
       <c r="W13" t="n">
-        <v>815.2527111843214</v>
+        <v>604.933074715475</v>
       </c>
       <c r="X13" t="n">
-        <v>673.8963403509615</v>
+        <v>604.933074715475</v>
       </c>
       <c r="Y13" t="n">
-        <v>541.757274814503</v>
+        <v>604.933074715475</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1466.592960251256</v>
+        <v>1249.580929887892</v>
       </c>
       <c r="C14" t="n">
-        <v>1174.555294855328</v>
+        <v>957.5432644919636</v>
       </c>
       <c r="D14" t="n">
-        <v>1005.437716905115</v>
+        <v>957.5432644919636</v>
       </c>
       <c r="E14" t="n">
-        <v>700.5480902824861</v>
+        <v>957.5432644919636</v>
       </c>
       <c r="F14" t="n">
-        <v>376.2929928639209</v>
+        <v>633.2881670733983</v>
       </c>
       <c r="G14" t="n">
-        <v>50.62931842731713</v>
+        <v>307.6244926367947</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731713</v>
+        <v>70.27279267945889</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
-        <v>131.2819911811612</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K14" t="n">
-        <v>439.2714293605866</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3295686103875</v>
+        <v>719.2973161773724</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.227155577602</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.465921365857</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2531.465921365857</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2366.520215858151</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.520215858151</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W14" t="n">
-        <v>2366.520215858151</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="X14" t="n">
-        <v>2074.386168650909</v>
+        <v>1857.374138287544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1770.740406498011</v>
+        <v>1553.728376134646</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H15" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
         <v>1520.571119459616</v>
@@ -5388,13 +5388,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
         <v>1268.754082009649</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.160878334943</v>
+        <v>234.7726248646429</v>
       </c>
       <c r="C16" t="n">
-        <v>369.4410020678878</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2652021669151</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669151</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639567</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="G16" t="n">
-        <v>164.90110293837</v>
+        <v>76.27321107200115</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002066</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413189</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405363</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068814</v>
+        <v>957.3332466068816</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077498</v>
@@ -5455,31 +5455,31 @@
         <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>1012.575898329213</v>
+        <v>969.0268560292258</v>
       </c>
       <c r="V16" t="n">
-        <v>1012.575898329213</v>
+        <v>798.1876448589128</v>
       </c>
       <c r="W16" t="n">
-        <v>816.3155901178765</v>
+        <v>601.9273366475763</v>
       </c>
       <c r="X16" t="n">
-        <v>674.9592192845167</v>
+        <v>460.5709658142166</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.8201537480584</v>
+        <v>328.4319002777582</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121861</v>
+        <v>931.961976412185</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021237</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961249</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
         <v>50.62931842731713</v>
@@ -5516,19 +5516,19 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.194903144586</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N17" t="n">
-        <v>1679.700173710447</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O17" t="n">
-        <v>2074.574784355413</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P17" t="n">
         <v>2379.433668932841</v>
@@ -5540,10 +5540,10 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U17" t="n">
         <v>2382.628765832485</v>
@@ -5555,10 +5555,10 @@
         <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
         <v>108.986232773886</v>
@@ -5592,13 +5592,13 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L18" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M18" t="n">
         <v>1398.552487108883</v>
@@ -5607,7 +5607,7 @@
         <v>1520.571119459616</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
         <v>2337.264736621381</v>
@@ -5619,19 +5619,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.2523380015522</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F19" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731713</v>
@@ -5677,7 +5677,7 @@
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724611</v>
@@ -5686,37 +5686,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P19" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="R19" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799333</v>
+        <v>722.9833885603359</v>
       </c>
       <c r="T19" t="n">
-        <v>676.5462392120838</v>
+        <v>519.0089132053589</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9722686033035</v>
+        <v>399.4349425965785</v>
       </c>
       <c r="V19" t="n">
-        <v>463.8399175455569</v>
+        <v>306.3025915388317</v>
       </c>
       <c r="W19" t="n">
-        <v>345.2864694467868</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X19" t="n">
-        <v>281.6369587259933</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y19" t="n">
-        <v>227.2047533021012</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1137.18298780113</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121848</v>
+        <v>931.9619764121846</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021221</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961235</v>
+        <v>458.2309725961231</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
@@ -5750,19 +5750,19 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J20" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938953</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436961</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O20" t="n">
         <v>2074.574784355413</v>
@@ -5783,7 +5783,7 @@
         <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
         <v>2213.252445112256</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779667</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189216</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D21" t="n">
         <v>616.2710031091337</v>
@@ -5829,13 +5829,13 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L21" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M21" t="n">
         <v>1398.552487108883</v>
@@ -5844,7 +5844,7 @@
         <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P21" t="n">
         <v>2337.264736621381</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.2523380015518</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C22" t="n">
-        <v>209.2393218470629</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D22" t="n">
-        <v>209.2393218470629</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E22" t="n">
-        <v>209.2393218470629</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F22" t="n">
-        <v>209.2393218470629</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731713</v>
@@ -5914,7 +5914,7 @@
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
         <v>403.7082365724611</v>
@@ -5923,37 +5923,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P22" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="R22" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799333</v>
+        <v>722.9833885603359</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053589</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033034</v>
+        <v>399.4349425965785</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455568</v>
+        <v>306.3025915388317</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467866</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259931</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.2047533021009</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121853</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021229</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F23" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
@@ -5990,10 +5990,10 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938953</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L23" t="n">
-        <v>907.9461548436961</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M23" t="n">
         <v>1394.843741810911</v>
@@ -6002,7 +6002,7 @@
         <v>1868.349012376772</v>
       </c>
       <c r="O23" t="n">
-        <v>2263.223623021737</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P23" t="n">
         <v>2379.433668932841</v>
@@ -6026,10 +6026,10 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8133128779675</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G24" t="n">
         <v>206.1118778881637</v>
@@ -6066,13 +6066,13 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K24" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M24" t="n">
         <v>1398.552487108883</v>
@@ -6081,7 +6081,7 @@
         <v>1520.571119459616</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824252</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
         <v>2337.264736621381</v>
@@ -6099,13 +6099,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015518</v>
+        <v>53.71501199482654</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470629</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="D25" t="n">
-        <v>203.7110100790186</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033745</v>
+        <v>51.70199584033751</v>
       </c>
       <c r="G25" t="n">
         <v>50.62931842731713</v>
@@ -6151,7 +6151,7 @@
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833888</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M25" t="n">
         <v>403.7082365724611</v>
@@ -6160,37 +6160,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748513</v>
+        <v>691.0258112748514</v>
       </c>
       <c r="P25" t="n">
-        <v>782.931691199069</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799333</v>
+        <v>583.5418640732084</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053589</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033034</v>
+        <v>399.4349425965785</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455568</v>
+        <v>306.3025915388317</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467866</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259931</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021009</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
         <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967892</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250971</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249038</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166289</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6637597322125</v>
+        <v>187.3366846949159</v>
       </c>
       <c r="K26" t="n">
-        <v>698.1273576550348</v>
+        <v>596.800282617738</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.659656648233</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358844</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668102</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2891.359604056464</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339989</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516401</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
-        <v>353.840217690225</v>
+        <v>353.8402176902251</v>
       </c>
       <c r="G27" t="n">
-        <v>225.4029004625094</v>
+        <v>225.4029004625095</v>
       </c>
       <c r="H27" t="n">
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166289</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155454</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314901</v>
+        <v>860.4992920314902</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683228</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O27" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485923</v>
+        <v>435.096001248593</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284104</v>
+        <v>369.0145279284109</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743109</v>
+        <v>319.4771309743113</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537675</v>
+        <v>271.0026129537678</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976824</v>
+        <v>222.0564541976825</v>
       </c>
       <c r="G28" t="n">
         <v>156.9153196189691</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974931</v>
+        <v>103.2476000974929</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166289</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567082</v>
       </c>
       <c r="K28" t="n">
         <v>292.324072026671</v>
@@ -6397,37 +6397,37 @@
         <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021224</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.595406688838</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362878</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771653</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486824</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453282</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.957409455369</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909059</v>
+        <v>761.3355041909072</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044194</v>
+        <v>633.6175363044206</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148344</v>
+        <v>515.1168737148352</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027182</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D29" t="n">
         <v>1255.828533472544</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967884</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250965</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353658</v>
+        <v>341.935343835366</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322124</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K29" t="n">
         <v>698.1273576550348</v>
@@ -6470,43 +6470,43 @@
         <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321544</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630802</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019164</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339989</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701279</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166773</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776118</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>488.5340157403507</v>
       </c>
       <c r="F30" t="n">
-        <v>353.840217690225</v>
+        <v>353.8402176902251</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4029004625094</v>
+        <v>225.4029004625095</v>
       </c>
       <c r="H30" t="n">
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
         <v>157.1374150831905</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485934</v>
+        <v>435.0960012485938</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284117</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743118</v>
+        <v>319.4771309743121</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537683</v>
+        <v>271.0026129537686</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976831</v>
+        <v>222.0564541976834</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189698</v>
+        <v>156.91531961897</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974938</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
         <v>129.4480754567082</v>
@@ -6637,16 +6637,16 @@
         <v>1277.215367021226</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q31" t="n">
         <v>1554.33387136288</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486827</v>
       </c>
       <c r="T31" t="n">
         <v>1284.800645453284</v>
@@ -6664,7 +6664,7 @@
         <v>633.6175363044212</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148356</v>
+        <v>515.1168737148359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E32" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967876</v>
       </c>
       <c r="F32" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250957</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353655</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249038</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
         <v>288.6637597322125</v>
@@ -6704,46 +6704,46 @@
         <v>698.1273576550348</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648233</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321544</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630802</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019164</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339989</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516402</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083145</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701279</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613527</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U32" t="n">
         <v>3154.974523052695</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W32" t="n">
         <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>488.5340157403507</v>
       </c>
       <c r="F33" t="n">
-        <v>353.840217690225</v>
+        <v>353.8402176902251</v>
       </c>
       <c r="G33" t="n">
-        <v>225.4029004625094</v>
+        <v>225.4029004625095</v>
       </c>
       <c r="H33" t="n">
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155454</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314901</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683228</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033962</v>
+        <v>1539.862142033961</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195727</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485924</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284105</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.477130974311</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537676</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976825</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189692</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974931</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166291</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266683</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995707</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320398</v>
+        <v>786.9494728320428</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822377</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021224</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688838</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362878</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771653</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453282</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553691</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.335504190906</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044196</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148345</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442195</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906255</v>
+        <v>489.030782990626</v>
       </c>
       <c r="G35" t="n">
         <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
@@ -6941,16 +6941,16 @@
         <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
@@ -6962,25 +6962,25 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T35" t="n">
         <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081354</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201074</v>
+        <v>107.3029779201073</v>
       </c>
       <c r="C37" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="D37" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="E37" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="F37" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="G37" t="n">
-        <v>77.26745025740874</v>
+        <v>57.55347413000766</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662989</v>
       </c>
       <c r="K37" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L37" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162073</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U37" t="n">
         <v>520.3974937598323</v>
@@ -7135,10 +7135,10 @@
         <v>281.7618605081261</v>
       </c>
       <c r="X37" t="n">
-        <v>204.637432739738</v>
+        <v>204.6374327397379</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682511</v>
+        <v>136.730310268251</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018757</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442186</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906252</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189934</v>
@@ -7172,13 +7172,13 @@
         <v>54.47929472662989</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137836</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.737991893209</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430099</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110224</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.6632891772798</v>
+        <v>920.6632891772796</v>
       </c>
       <c r="C39" t="n">
-        <v>758.9596164182345</v>
+        <v>758.9596164182343</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1209794084466</v>
+        <v>620.1209794084464</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0929694653178</v>
+        <v>473.0929694653177</v>
       </c>
       <c r="F39" t="n">
-        <v>338.3991714151921</v>
+        <v>338.399171415192</v>
       </c>
       <c r="G39" t="n">
         <v>209.9618541874764</v>
@@ -7263,16 +7263,16 @@
         <v>1402.402463408195</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758929</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.114712920694</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2535.315897665169</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="R39" t="n">
         <v>2493.610501544505</v>
@@ -7281,7 +7281,7 @@
         <v>2346.219606408185</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.708173391411</v>
+        <v>2158.70817339141</v>
       </c>
       <c r="U39" t="n">
         <v>1940.232537749523</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3029779201074</v>
+        <v>107.3029779201073</v>
       </c>
       <c r="C40" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="D40" t="n">
-        <v>91.81504471802373</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062262</v>
+        <v>91.81504471802359</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062262</v>
+        <v>72.10106859062267</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000764</v>
+        <v>57.55347413000766</v>
       </c>
       <c r="H40" t="n">
         <v>54.47929472662989</v>
@@ -7333,34 +7333,34 @@
         <v>54.47929472662989</v>
       </c>
       <c r="K40" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L40" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316515</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162073</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U40" t="n">
         <v>520.3974937598323</v>
@@ -7372,10 +7372,10 @@
         <v>281.7618605081261</v>
       </c>
       <c r="X40" t="n">
-        <v>204.637432739738</v>
+        <v>204.6374327397379</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.7303102682511</v>
+        <v>136.730310268251</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018765</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E41" t="n">
         <v>749.0539373442195</v>
@@ -7400,22 +7400,22 @@
         <v>489.0307829906261</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J41" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430099</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110224</v>
@@ -7436,10 +7436,10 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
         <v>2534.702829655338</v>
@@ -7448,7 +7448,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
         <v>1915.542593939082</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.6632891772798</v>
+        <v>920.6632891772796</v>
       </c>
       <c r="C42" t="n">
-        <v>758.9596164182345</v>
+        <v>758.9596164182343</v>
       </c>
       <c r="D42" t="n">
-        <v>620.1209794084466</v>
+        <v>620.1209794084464</v>
       </c>
       <c r="E42" t="n">
-        <v>473.0929694653178</v>
+        <v>473.0929694653177</v>
       </c>
       <c r="F42" t="n">
-        <v>338.3991714151921</v>
+        <v>338.399171415192</v>
       </c>
       <c r="G42" t="n">
         <v>209.9618541874764</v>
@@ -7485,7 +7485,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J42" t="n">
         <v>141.6963688081575</v>
@@ -7500,16 +7500,16 @@
         <v>1402.402463408195</v>
       </c>
       <c r="N42" t="n">
-        <v>1524.421095758929</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123564</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.114712920694</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q42" t="n">
-        <v>2535.315897665169</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="R42" t="n">
         <v>2493.610501544505</v>
@@ -7518,7 +7518,7 @@
         <v>2346.219606408185</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.708173391411</v>
+        <v>2158.70817339141</v>
       </c>
       <c r="U42" t="n">
         <v>1940.232537749523</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201087</v>
+        <v>87.589001792706</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G43" t="n">
-        <v>77.26745025741039</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H43" t="n">
-        <v>74.19327085403282</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I43" t="n">
-        <v>74.19327085403282</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K43" t="n">
-        <v>115.881131553196</v>
+        <v>115.8811315531961</v>
       </c>
       <c r="L43" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717739</v>
+        <v>407.558212871774</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316516</v>
+        <v>711.7402732042494</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162076</v>
+        <v>633.7324052888054</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598327</v>
+        <v>500.6835176324304</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544916</v>
+        <v>394.0762495270892</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081269</v>
+        <v>262.0478843807245</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397389</v>
+        <v>184.9234566123364</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682523</v>
+        <v>117.0163341408497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338418</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018777</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442209</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906276</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J44" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L44" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110222</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676083</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321049</v>
       </c>
       <c r="P44" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898477</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081354</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>209.9618541874764</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8362090731988</v>
+        <v>112.8362090731987</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J45" t="n">
         <v>141.6963688081575</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.3029779201087</v>
+        <v>87.58900179270597</v>
       </c>
       <c r="C46" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="D46" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="E46" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="F46" t="n">
-        <v>91.81504471802521</v>
+        <v>72.10106859062242</v>
       </c>
       <c r="G46" t="n">
-        <v>77.26745025741039</v>
+        <v>57.55347413000752</v>
       </c>
       <c r="H46" t="n">
-        <v>74.19327085403282</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="I46" t="n">
-        <v>74.19327085403282</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7816,40 +7816,40 @@
         <v>407.5582128717739</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187144</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741642</v>
+        <v>694.8757875741643</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316516</v>
+        <v>711.7402732042494</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162076</v>
+        <v>633.7324052888054</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598327</v>
+        <v>500.6835176324304</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544916</v>
+        <v>394.0762495270892</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081269</v>
+        <v>262.0478843807245</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397389</v>
+        <v>184.9234566123364</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682523</v>
+        <v>117.0163341408496</v>
       </c>
     </row>
   </sheetData>
@@ -8696,10 +8696,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>393.8132110494453</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443432</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8766,16 +8766,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577346</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2633189153692</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.83914898298</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>470.8589933810694</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2633189153692</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869885</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.8132110494453</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316903</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,13 +9407,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494453</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>422.9396501070518</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>227.7839381316908</v>
+        <v>227.7839381316903</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869881</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869883</v>
+        <v>154.9918226869876</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869883</v>
+        <v>154.9918226869875</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869874</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236969</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869883</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155866</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869883</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406809</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869874</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.797456767290981</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>238.9952469210624</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196317</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>90.22407164548611</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>51.1384505999356</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112.6721906157855</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241302</v>
+        <v>41.8736681727927</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.0821803754516</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196307</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774249</v>
+        <v>61.49179175774252</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592883</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>41.2456075254287</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>91.27632178970372</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.608047442568932e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1283121.675976106</v>
+        <v>1283121.675976107</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1283121.675976107</v>
+        <v>1283121.675976106</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>57440.74736304783</v>
       </c>
       <c r="C2" t="n">
-        <v>57440.74736304781</v>
+        <v>57440.74736304783</v>
       </c>
       <c r="D2" t="n">
-        <v>57440.74736304783</v>
+        <v>57440.74736304782</v>
       </c>
       <c r="E2" t="n">
+        <v>50196.50985898245</v>
+      </c>
+      <c r="F2" t="n">
         <v>50196.50985898244</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50196.50985898246</v>
       </c>
       <c r="G2" t="n">
         <v>57571.8045370636</v>
       </c>
       <c r="H2" t="n">
-        <v>57571.80453706361</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="I2" t="n">
         <v>57571.80453706359</v>
       </c>
       <c r="J2" t="n">
+        <v>57571.80453706365</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57571.80453706367</v>
+      </c>
+      <c r="L2" t="n">
         <v>57571.80453706368</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>57571.80453706364</v>
+      </c>
+      <c r="N2" t="n">
         <v>57571.80453706365</v>
       </c>
-      <c r="L2" t="n">
-        <v>57571.80453706365</v>
-      </c>
-      <c r="M2" t="n">
-        <v>57571.80453706365</v>
-      </c>
-      <c r="N2" t="n">
-        <v>57571.80453706357</v>
-      </c>
       <c r="O2" t="n">
+        <v>57571.80453706362</v>
+      </c>
+      <c r="P2" t="n">
         <v>57571.80453706356</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57571.80453706363</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>1.029028291148799e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.8332091525</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613909</v>
+        <v>83547.74167613928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915258</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415064</v>
+        <v>149683.3109415065</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.4877956127</v>
+        <v>20455.48779561269</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164462</v>
+        <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="H4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="I4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="J4" t="n">
         <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
-        <v>309193.0084127063</v>
+        <v>309193.0084127064</v>
       </c>
       <c r="L4" t="n">
         <v>309193.0084127064</v>
@@ -26451,13 +26451,13 @@
         <v>308176.3362657601</v>
       </c>
       <c r="N4" t="n">
+        <v>308176.3362657601</v>
+      </c>
+      <c r="O4" t="n">
         <v>308176.3362657602</v>
       </c>
-      <c r="O4" t="n">
-        <v>308176.3362657603</v>
-      </c>
       <c r="P4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48881.83299975544</v>
+        <v>48881.83299975546</v>
       </c>
       <c r="F5" t="n">
         <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462552</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
@@ -26506,10 +26506,10 @@
         <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654697</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654694</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377794.2590512599</v>
+        <v>-377798.6276237271</v>
       </c>
       <c r="C6" t="n">
-        <v>-377794.2590512599</v>
+        <v>-377798.627623727</v>
       </c>
       <c r="D6" t="n">
-        <v>-377794.2590512599</v>
+        <v>-377798.6276237271</v>
       </c>
       <c r="E6" t="n">
-        <v>-621539.8227721904</v>
+        <v>-621785.6659281268</v>
       </c>
       <c r="F6" t="n">
-        <v>-253709.4832572193</v>
+        <v>-253955.3264131553</v>
       </c>
       <c r="G6" t="n">
-        <v>-370271.9929889779</v>
+        <v>-370271.9929889777</v>
       </c>
       <c r="H6" t="n">
+        <v>-308728.1597798252</v>
+      </c>
+      <c r="I6" t="n">
         <v>-308728.1597798253</v>
       </c>
-      <c r="I6" t="n">
-        <v>-308728.1597798254</v>
-      </c>
       <c r="J6" t="n">
-        <v>-399847.0569364073</v>
+        <v>-399847.0569364076</v>
       </c>
       <c r="K6" t="n">
-        <v>-316299.3152602682</v>
+        <v>-316299.3152602683</v>
       </c>
       <c r="L6" t="n">
-        <v>-377843.1484694208</v>
+        <v>-377843.1484694207</v>
       </c>
       <c r="M6" t="n">
         <v>-457441.5737267499</v>
       </c>
       <c r="N6" t="n">
-        <v>-307758.2627852436</v>
+        <v>-307758.2627852435</v>
       </c>
       <c r="O6" t="n">
-        <v>-328213.7505808564</v>
+        <v>-328213.7505808562</v>
       </c>
       <c r="P6" t="n">
-        <v>-307758.2627852436</v>
+        <v>-307758.2627852435</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H2" t="n">
         <v>165.9269238499924</v>
@@ -26707,13 +26707,13 @@
         <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K2" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
         <v>152.5867559728737</v>
@@ -26722,10 +26722,10 @@
         <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="3">
@@ -26765,19 +26765,19 @@
         <v>134.0206915791158</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="G4" t="n">
         <v>632.8664803414641</v>
@@ -26811,25 +26811,25 @@
         <v>632.8664803414641</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207861</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207863</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207863</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828736</v>
       </c>
       <c r="N4" t="n">
         <v>680.9911840828736</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828732</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144063</v>
+        <v>76.92979151144054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451571</v>
+        <v>25.56935974451575</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144073</v>
+        <v>76.92979151144054</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691726</v>
+        <v>50.0876047169174</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451588</v>
+        <v>25.56935974451586</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.137782179322</v>
+        <v>241.1377821793226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035513</v>
+        <v>439.8534019035511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="K2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144063</v>
+        <v>76.92979151144054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451571</v>
+        <v>25.56935974451575</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="12">
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855185</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="15">
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C19" t="n">
-        <v>9.96497110333388</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499925</v>
+        <v>27.87981460773619</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>9.964971103334278</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
@@ -29010,7 +29010,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499924</v>
+        <v>27.87981460773619</v>
       </c>
       <c r="U22" t="n">
         <v>165.9269238499924</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591271</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.126971366660357e-13</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>-5.63777347988137e-14</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
-        <v>146.0681455901511</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499924</v>
+        <v>27.87981460773611</v>
       </c>
       <c r="T25" t="n">
         <v>165.9269238499924</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J26" t="n">
-        <v>102.4991512559564</v>
+        <v>0.1485704102022254</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1485704101986016</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559533</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="29">
@@ -29542,10 +29542,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1485704101992269</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102008185</v>
       </c>
       <c r="O29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1485704101987722</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559564</v>
+        <v>0.1485704102008185</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559537</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.499151255957</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S35" t="n">
         <v>152.5867559728737</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
+        <v>133.0699196067468</v>
+      </c>
+      <c r="H37" t="n">
         <v>152.5867559728737</v>
-      </c>
-      <c r="H37" t="n">
-        <v>133.0699196067466</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728737</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9720877301672</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>131.4390120583537</v>
       </c>
       <c r="G40" t="n">
         <v>152.5867559728737</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>22.8532901877617</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067456</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>22.85329018776169</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067456</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H11" t="n">
         <v>5.517746362350223</v>
@@ -31759,37 +31759,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S11" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U11" t="n">
         <v>0.0431021319651427</v>
@@ -31832,34 +31832,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J12" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K12" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R12" t="n">
         <v>17.89808405654682</v>
@@ -31871,7 +31871,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P13" t="n">
         <v>29.22969312735335</v>
@@ -31944,7 +31944,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314498</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H14" t="n">
         <v>5.517746362350223</v>
@@ -31996,37 +31996,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U14" t="n">
         <v>0.0431021319651427</v>
@@ -32069,34 +32069,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J15" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K15" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R15" t="n">
         <v>17.89808405654682</v>
@@ -32108,7 +32108,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P16" t="n">
         <v>29.22969312735335</v>
@@ -32181,7 +32181,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H17" t="n">
         <v>5.517746362350223</v>
@@ -32233,37 +32233,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U17" t="n">
         <v>0.0431021319651427</v>
@@ -32306,34 +32306,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J18" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654682</v>
@@ -32345,7 +32345,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P19" t="n">
         <v>29.22969312735335</v>
@@ -32418,7 +32418,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H20" t="n">
         <v>5.517746362350223</v>
@@ -32470,37 +32470,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U20" t="n">
         <v>0.0431021319651427</v>
@@ -32543,34 +32543,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J21" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654682</v>
@@ -32582,7 +32582,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J22" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P22" t="n">
         <v>29.22969312735335</v>
@@ -32655,7 +32655,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H23" t="n">
         <v>5.517746362350223</v>
@@ -32707,37 +32707,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U23" t="n">
         <v>0.0431021319651427</v>
@@ -32780,34 +32780,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J24" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654682</v>
@@ -32819,7 +32819,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J25" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P25" t="n">
         <v>29.22969312735335</v>
@@ -32892,7 +32892,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642838</v>
       </c>
       <c r="H26" t="n">
         <v>5.517746362350223</v>
@@ -32944,37 +32944,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095668</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701284</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611579</v>
+        <v>85.0229961261158</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780464</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337916</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427431</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815604</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563509</v>
+        <v>58.1818169156351</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319248</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467654</v>
       </c>
       <c r="U26" t="n">
         <v>0.0431021319651427</v>
@@ -33017,34 +33017,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634084</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736401</v>
       </c>
       <c r="J27" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309721</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588797</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061805</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933946</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483293</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690133</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149608</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654682</v>
@@ -33056,7 +33056,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301234</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519917</v>
       </c>
       <c r="J28" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608358</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630916</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653593</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428289</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905068</v>
       </c>
       <c r="P28" t="n">
         <v>29.22969312735335</v>
@@ -33129,7 +33129,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412537</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K33" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K36" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K39" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K42" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642843</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350227</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095671</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701288</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611586</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780469</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337922</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427437</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815608</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563514</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319247</v>
+        <v>33.8439287131925</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467656</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514273</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097963</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634086</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736408</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194089</v>
       </c>
       <c r="K45" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309724</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588801</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061811</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933952</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483297</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690136</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149607</v>
+        <v>36.7975302614961</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429765</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459187</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459465</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519921</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607842</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608357</v>
+        <v>28.0784334160836</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630918</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653596</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905071</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844649</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412539</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
-        <v>301.2613619200908</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954922</v>
       </c>
       <c r="O11" t="n">
         <v>398.8632430757227</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416516</v>
       </c>
       <c r="L12" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>94.82069326434731</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
         <v>591.4044077482506</v>
@@ -35507,7 +35507,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466112</v>
+        <v>46.62700578466126</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526329</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415033</v>
+        <v>71.08228883415048</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.46734621600409</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785867</v>
+        <v>364.3217773440705</v>
       </c>
       <c r="M14" t="n">
         <v>491.8157444113278</v>
@@ -35665,7 +35665,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
@@ -35732,10 +35732,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>94.82069326434731</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886197</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466125</v>
+        <v>46.62700578466123</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
@@ -35823,7 +35823,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415046</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L17" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200908</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
@@ -35899,7 +35899,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
-        <v>307.938267249927</v>
+        <v>117.3838847586898</v>
       </c>
       <c r="Q17" t="n">
         <v>153.567931750521</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
@@ -35972,7 +35972,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
@@ -36051,13 +36051,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L20" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200908</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>326.7626575412057</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427827</v>
@@ -36209,7 +36209,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
@@ -36288,13 +36288,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L23" t="n">
         <v>436.4223628785867</v>
@@ -36373,7 +36373,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>117.3838847586903</v>
+        <v>117.3838847586898</v>
       </c>
       <c r="Q23" t="n">
         <v>153.567931750521</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427827</v>
@@ -36446,7 +36446,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886192</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057187</v>
+        <v>62.02205740057188</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
@@ -36525,13 +36525,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567436</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126764</v>
+        <v>118.6023673669222</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614367</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.9215141345431</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672842</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426848</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
-        <v>308.0868376601256</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004369</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
@@ -36683,7 +36683,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206581</v>
+        <v>60.12902470206567</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565283</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877802</v>
+        <v>240.0531914877801</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873426</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700377</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O28" t="n">
-        <v>236.1172769685288</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016308</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155502</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>491.9643148215271</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426847</v>
+        <v>478.4367224969293</v>
       </c>
       <c r="O29" t="n">
         <v>501.3623943316791</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004361</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126764</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
         <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9215141345431</v>
+        <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>491.9643148215266</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426848</v>
+        <v>478.4367224969293</v>
       </c>
       <c r="O32" t="n">
         <v>501.3623943316791</v>
@@ -37090,7 +37090,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004368</v>
+        <v>46.61117633004359</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37157,13 +37157,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q33" t="n">
         <v>196.1628128732074</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206579</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565255</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877802</v>
+        <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873426</v>
+        <v>259.5684254873432</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700376</v>
+        <v>259.1007979700375</v>
       </c>
       <c r="O34" t="n">
-        <v>236.117276968532</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016308</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.584307751555</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427827</v>
@@ -37400,7 +37400,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.453796956721</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37631,13 +37631,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q39" t="n">
         <v>196.1628128732074</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785878</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
@@ -37868,13 +37868,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>123.2511437886194</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M44" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113265</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867284</v>
+        <v>478.2881520867285</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
@@ -38111,7 +38111,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546763</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057187</v>
+        <v>62.0220574005719</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
